--- a/doc_ex2/Algorithm comparisons/Algo2 BM3 ts2 comparison.xlsx
+++ b/doc_ex2/Algorithm comparisons/Algo2 BM3 ts2 comparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\doc_ex2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\Csv_to_Kml_Converter\doc_ex2\Algorithm comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="31">
   <si>
     <t>Ariel_University</t>
   </si>
@@ -114,13 +114,16 @@
   </si>
   <si>
     <t>Average  for all rows</t>
+  </si>
+  <si>
+    <t>Average of Lat and Lon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +162,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +204,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,51 +247,6 @@
     <border>
       <left style="medium">
         <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -347,20 +317,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
@@ -372,27 +362,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -708,50 +684,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1655062-209A-4B36-861B-E6DC8C57DFF6}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.11328125" customWidth="1"/>
-    <col min="17" max="17" width="19.3046875" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.25" thickBot="1" x14ac:dyDescent="1">
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.85">
+      <c r="S1" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -764,7 +744,7 @@
       <c r="D2">
         <v>35.2102548886999</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="5">
         <v>710.93479887847798</v>
       </c>
       <c r="F2" t="s">
@@ -783,12 +763,12 @@
         <v>688.5</v>
       </c>
       <c r="L2">
-        <f>C2-H2</f>
-        <v>-1.1658233077014302E-3</v>
+        <f>ABS(C2-H2)</f>
+        <v>1.1658233077014302E-3</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:N2" si="0">D2-I2</f>
-        <v>-7.3428130009745018E-4</v>
+        <f t="shared" ref="M2:N2" si="0">ABS(D2-I2)</f>
+        <v>7.3428130009745018E-4</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -796,14 +776,18 @@
       </c>
       <c r="O2">
         <f>(L2+M2+N2)/3</f>
-        <v>7.4776329246233928</v>
+        <v>7.478899661028592</v>
       </c>
       <c r="Q2" s="4">
         <f>AVERAGE(O2:O32)</f>
-        <v>5.3248432722698826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.85">
+        <v>5.3256000358325215</v>
+      </c>
+      <c r="S2" s="16">
+        <f>AVERAGE(L2:L32,M2:M32)</f>
+        <v>6.072189181607991E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -835,23 +819,23 @@
         <v>699.41281094171495</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L32" si="1">C3-H3</f>
-        <v>-2.5465558719872661E-4</v>
+        <f t="shared" ref="L3:L32" si="1">ABS(C3-H3)</f>
+        <v>2.5465558719872661E-4</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M32" si="2">D3-I3</f>
-        <v>-4.8087301969701457E-4</v>
+        <f t="shared" ref="M3:M32" si="2">ABS(D3-I3)</f>
+        <v>4.8087301969701457E-4</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N32" si="3">E3-J3</f>
+        <f t="shared" ref="N3:N32" si="3">ABS(E3-J3)</f>
         <v>11.521987936763026</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O32" si="4">(L3+M3+N3)/3</f>
-        <v>3.8404174693853768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.85">
+        <v>3.8409078217899739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -884,11 +868,11 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>-2.2372795889680219E-4</v>
+        <v>2.2372795889680219E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>-4.0151174540170587E-4</v>
+        <v>4.0151174540170587E-4</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
@@ -896,10 +880,10 @@
       </c>
       <c r="O4">
         <f t="shared" si="4"/>
-        <v>3.1253946961929011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.85">
+        <v>3.1258115226624335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -932,11 +916,11 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-1.4777019750056297E-4</v>
+        <v>1.4777019750056297E-4</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>-3.1925958649736685E-4</v>
+        <v>3.1925958649736685E-4</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
@@ -944,10 +928,10 @@
       </c>
       <c r="O5">
         <f t="shared" si="4"/>
-        <v>2.1041703646139851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.85">
+        <v>2.1044817178033171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -980,7 +964,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>-3.3032399839783011E-4</v>
+        <v>3.3032399839783011E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
@@ -992,10 +976,10 @@
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>3.1900077246539098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.85">
+        <v>3.1902279406528415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1028,11 +1012,11 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>-1.1658233077014302E-3</v>
+        <v>1.1658233077014302E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>-7.3428130009745018E-4</v>
+        <v>7.3428130009745018E-4</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
@@ -1040,10 +1024,10 @@
       </c>
       <c r="O7">
         <f t="shared" si="4"/>
-        <v>7.4776329246233928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.85">
+        <v>7.478899661028592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1076,11 +1060,11 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>-1.4930404540081099E-4</v>
+        <v>1.4930404540081099E-4</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>-1.2842979980121072E-4</v>
+        <v>1.2842979980121072E-4</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
@@ -1088,10 +1072,10 @@
       </c>
       <c r="O8">
         <f t="shared" si="4"/>
-        <v>1.0140379868922835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.85">
+        <v>1.0142231427890849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1124,11 +1108,11 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>-2.736171138053578E-4</v>
+        <v>2.736171138053578E-4</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>-4.5123627379695108E-4</v>
+        <v>4.5123627379695108E-4</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
@@ -1136,10 +1120,10 @@
       </c>
       <c r="O9">
         <f t="shared" si="4"/>
-        <v>3.4362146759277792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.85">
+        <v>3.4366979115195142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1172,11 +1156,11 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>-3.9594916319884987E-4</v>
+        <v>3.9594916319884987E-4</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>-5.4697466769937364E-4</v>
+        <v>5.4697466769937364E-4</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
@@ -1184,10 +1168,10 @@
       </c>
       <c r="O10">
         <f t="shared" si="4"/>
-        <v>3.465825317542361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.85">
+        <v>3.4664539334296265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1220,11 +1204,11 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>-8.9771306409858198E-4</v>
+        <v>8.9771306409858198E-4</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>-7.3581385490228968E-4</v>
+        <v>7.3581385490228968E-4</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
@@ -1232,10 +1216,10 @@
       </c>
       <c r="O11">
         <f t="shared" si="4"/>
-        <v>4.5959240291456425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.85">
+        <v>4.597013047091643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1268,11 +1252,11 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>-1.0563426517009589E-3</v>
+        <v>1.0563426517009589E-3</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>-6.8647946149980044E-4</v>
+        <v>6.8647946149980044E-4</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
@@ -1280,10 +1264,10 @@
       </c>
       <c r="O12">
         <f t="shared" si="4"/>
-        <v>4.8729237887239423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.85">
+        <v>4.8740856701327431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1316,11 +1300,11 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>-1.6009312617981664E-3</v>
+        <v>1.6009312617981664E-3</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>-1.1205614163998234E-3</v>
+        <v>1.1205614163998234E-3</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
@@ -1328,10 +1312,10 @@
       </c>
       <c r="O13">
         <f t="shared" si="4"/>
-        <v>6.0449691831762609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.85">
+        <v>6.0467835116283934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1352,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>-3.2182456750007304E-4</v>
+        <v>3.2182456750007304E-4</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
@@ -1376,10 +1360,10 @@
       </c>
       <c r="O14">
         <f t="shared" si="4"/>
-        <v>4.1404286900174112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.85">
+        <v>4.1406432397290773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1411,7 @@
         <v>2.1705199214736859</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1444,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>-4.548614758945746E-4</v>
+        <v>4.548614758945746E-4</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -1472,10 +1456,10 @@
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
-        <v>8.431895822924302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.85">
+        <v>8.4321990639082305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1508,11 +1492,11 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>-1.262777511797708E-3</v>
+        <v>1.262777511797708E-3</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>-8.4813854270038291E-4</v>
+        <v>8.4813854270038291E-4</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
@@ -1520,10 +1504,10 @@
       </c>
       <c r="O17">
         <f t="shared" si="4"/>
-        <v>7.4205491120065048</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.85">
+        <v>7.4219563893761702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1556,11 +1540,11 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>-2.6013667339697122E-4</v>
+        <v>2.6013667339697122E-4</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>-4.927446991018769E-4</v>
+        <v>4.927446991018769E-4</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
@@ -1568,10 +1552,10 @@
       </c>
       <c r="O18">
         <f t="shared" si="4"/>
-        <v>3.5886259820398365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.85">
+        <v>3.5891279029548357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1604,7 +1588,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>-2.514892472973429E-4</v>
+        <v>2.514892472973429E-4</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
@@ -1616,10 +1600,10 @@
       </c>
       <c r="O19">
         <f t="shared" si="4"/>
-        <v>6.1205789977338343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.85">
+        <v>6.1207466572320328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1652,11 +1636,11 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>-8.839306520513901E-5</v>
+        <v>8.839306520513901E-5</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>-2.7274482879846573E-4</v>
+        <v>2.7274482879846573E-4</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
@@ -1664,10 +1648,10 @@
       </c>
       <c r="O20">
         <f t="shared" si="4"/>
-        <v>2.4991372445576681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.85">
+        <v>2.4993780031536708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1700,7 +1684,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>-5.4292191700255898E-4</v>
+        <v>5.4292191700255898E-4</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
@@ -1712,10 +1696,10 @@
       </c>
       <c r="O21">
         <f t="shared" si="4"/>
-        <v>8.4026457987648442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.85">
+        <v>8.4030077467095126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1748,11 +1732,11 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>-1.2453702665027322E-3</v>
+        <v>1.2453702665027322E-3</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>-7.8174620239934711E-4</v>
+        <v>7.8174620239934711E-4</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
@@ -1760,10 +1744,10 @@
       </c>
       <c r="O22">
         <f t="shared" si="4"/>
-        <v>7.427011234282709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.85">
+        <v>7.4283626452619771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1796,11 +1780,11 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>-1.2157003686965595E-3</v>
+        <v>1.2157003686965595E-3</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>-7.7173585339807005E-4</v>
+        <v>7.7173585339807005E-4</v>
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
@@ -1808,10 +1792,10 @@
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
-        <v>7.4483422104039603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.85">
+        <v>7.4496671678853561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1844,11 +1828,11 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>-2.994574573023101E-4</v>
+        <v>2.994574573023101E-4</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>-2.2851924070010909E-4</v>
+        <v>2.2851924070010909E-4</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
@@ -1856,10 +1840,10 @@
       </c>
       <c r="O24">
         <f t="shared" si="4"/>
-        <v>2.2077516507553434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.85">
+        <v>2.2081036352206787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1892,11 +1876,11 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>-7.358126768011175E-4</v>
+        <v>7.358126768011175E-4</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>-5.3701973410369419E-4</v>
+        <v>5.3701973410369419E-4</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
@@ -1904,10 +1888,10 @@
       </c>
       <c r="O25">
         <f t="shared" si="4"/>
-        <v>4.4962602196090229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.85">
+        <v>4.4971087745496261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1924,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>-9.5013586309988796E-4</v>
+        <v>9.5013586309988796E-4</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
@@ -1952,10 +1936,10 @@
       </c>
       <c r="O26">
         <f t="shared" si="4"/>
-        <v>7.1091648796192075</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.85">
+        <v>7.1097983035279411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1988,11 +1972,11 @@
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>-1.3226104385992699E-3</v>
+        <v>1.3226104385992699E-3</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>-9.7607049039538651E-4</v>
+        <v>9.7607049039538651E-4</v>
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
@@ -2000,10 +1984,10 @@
       </c>
       <c r="O27">
         <f t="shared" si="4"/>
-        <v>6.6481931442913336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.85">
+        <v>6.6497255982439967</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2036,7 +2020,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>-5.6876435639452438E-4</v>
+        <v>5.6876435639452438E-4</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
@@ -2048,10 +2032,10 @@
       </c>
       <c r="O28">
         <f t="shared" si="4"/>
-        <v>8.3726905524049737</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.85">
+        <v>8.3730697286425695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2084,11 +2068,11 @@
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>-1.4312311167969938E-3</v>
+        <v>1.4312311167969938E-3</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>-1.0427798357994789E-3</v>
+        <v>1.0427798357994789E-3</v>
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
@@ -2096,10 +2080,10 @@
       </c>
       <c r="O29">
         <f t="shared" si="4"/>
-        <v>7.3248586267994824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.85">
+        <v>7.326507967434547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2132,7 +2116,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>-8.4654498500214004E-4</v>
+        <v>8.4654498500214004E-4</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
@@ -2144,10 +2128,10 @@
       </c>
       <c r="O30">
         <f t="shared" si="4"/>
-        <v>6.8511682342794673</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.85">
+        <v>6.8517325976028021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2180,11 +2164,11 @@
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>-1.4228394435988889E-3</v>
+        <v>1.4228394435988889E-3</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>-1.1360940246945006E-3</v>
+        <v>1.1360940246945006E-3</v>
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
@@ -2192,10 +2176,10 @@
       </c>
       <c r="O31">
         <f t="shared" si="4"/>
-        <v>6.22906882032522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.85">
+        <v>6.2307747759707484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2212,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>-8.7935669650107684E-4</v>
+        <v>8.7935669650107684E-4</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
@@ -2240,76 +2224,76 @@
       </c>
       <c r="O32">
         <f t="shared" si="4"/>
-        <v>7.5360992125763344</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.85">
+        <v>7.5366854503740015</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="3"/>
     </row>
   </sheetData>
